--- a/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Blacklist.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Blacklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6BE58-7E79-4052-A6D3-C962BE78092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715E16F-5A02-4B96-931F-FB8069FFE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,11 +536,11 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
